--- a/EditProject/Design/Stage/G_Player.xlsx
+++ b/EditProject/Design/Stage/G_Player.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="11925" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="8620" yWindow="12280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dict[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在天空中飞行的能力、操纵灵气的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楽园の素敌な巫女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,14 +138,50 @@
   </si>
   <si>
     <t>普通の黒魔术少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在天空中飞行的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisionPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -527,21 +551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="1" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -549,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -561,10 +586,16 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -572,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -584,16 +615,22 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -613,29 +650,35 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1"/>
-    <row r="5" spans="1:9" hidden="1"/>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:11" hidden="1"/>
+    <row r="5" spans="1:11" hidden="1"/>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -643,25 +686,28 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>32</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -669,17 +715,20 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>32</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -689,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
